--- a/deuChatbot/research_result/results/sem_score/sem_version_2(2000_100).xlsx
+++ b/deuChatbot/research_result/results/sem_score/sem_version_2(2000_100).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,61 +6075,3422 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 주로 시각디자인, 산업디자인, 공예디자인 분야에서 진행되며, 각 분야는 다른 준비물과 실기주제를 요구합니다. 여기서 기초디자인과 사고의 전환 두 가지 종목에 대해 자세히 설명해 드리겠습니다.
+### 1. 기초디자인
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+- **실기주제**: 주제A와 주제B에서 각각 한 개씩 선택하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로 잠자리와 저울을 연결하는 주제를 들 수 있습니다.
+  - **주제A**: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+  - **주제B**: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- **화지크기**: 켄트지3절
+- **시간**: 5시간
+### 2. 사고의 전환
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+- **실기주제**: 주제A와 주제B에서 각각 한 개씩 선택하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로 콜라병과 계절을 연결하는 주제를 들 수 있습니다.
+  - **주제A**: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+  - **주제B**: 바이러스, 자유, 여행, 계절, 꿈
+- **화지크기**: 켄트지2절
+- **시간**: 5시간
+디자인조형학과의 실기시험은 창의성과 표현력, 기술적 능력을 평가하기 위해 이러한 종목들을 통해 학생들의 디자인 능력을 점검합니다. 준비할 때는 주제와 관련된 다양한 아이디어를 발전시키고, 표현에 필요한 도구를 잘 활용하는 것이 중요합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.8003776690363884</v>
+        <v>0.8048149347305298</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인이 있으며, 선택된 실기종목은 다음과 같습니다:
+1. **실기종목**: 기초디자인, 사고의 전환
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+   - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+4. **화지크기**: 켄트지3절
+5. **시간**: 5시간
+이러한 준비물을 가지고 주제A와 주제B 각각에서 하나를 선택하여 연결된 주제를 표현해야 합니다. 제공된 사물과 이미지는 사용할 수 있지만, 형상 변경은 금지되어 있습니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.7873927128314971</v>
+        <v>0.9364989399909973</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다:
+1. 배드민턴(남)의 경우:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)의 경우:
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -문화체육관광부장관배전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기반으로 서류심사 점수를 부여받습니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.9550751447677612</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 시각디자인, 산업디자인, 공예디자인의 기초디자인 실기시험에서 사용되는 주제는 다음과 같습니다:
+- **주제A**: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- **주제B**: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+두 주제 중에서 각각 1개씩 선택하여 연결된 주제를 작성해야 합니다. 예시로는 "잠자리와 저울" 또는 "악보와 줄자" 등이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.9836379885673523</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 모든 전형요소 중 학생부 교과의 비율이 100%이며, 출결은 0%로 표시되어 있습니다.
+따라서, 현재 제공된 정보에 따르면 학생부교과 전형에서 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.603619396686554</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다.
+이 정보는 다음과 같은 문단에서 얻었습니다:
+전형별 모집단위별 모집인원에서 단과대학은 인문사회과학대학이며, 모집단위은 국어국문학과 - 교직이며, 정원 내 모집인원은 45이며, &lt;가군&gt;의 일반 학생은 17이며, ...</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.899721622467041</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2명을 모집합니다.
+참조로, 관련 정보는 다음과 같습니다:
+전형별 모집단위별 모집인원에서 단과대학은 인문사회과학대학이며, 모집단위은 영어영문학과 - 교직이며, 정원 내 모집 인원은 50이며, 가군의 일반 학생은 0이며, 나군의 일반 학생은 0이며, 나군의 경기 실적 우수자은 0이며, 나군의 농어촌 학생은 추가내용 참조이며, 나군의 평생 학습자은 0이며, 나군의 성인 학습자(정원내)은 0이며, 나군의 성인 학습자(정원외)은 0이며, 나군의 재직자은 0이며, 나군의 조기 취업형 계약 학과은 0이며, 다군의 일반 학생은 2이다.
+따라서 인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로는 2명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.7518161535263062</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.9557217359542847</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.8472718000411987</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 있습니다. 
+관련 정보:
+- **고교유형별 지원자격**: 
+  - 모집군은 나군입니다.
+  - 전형명은 "학생부교과(농어촌학생전형)"입니다.
+  - 예술고는 지원 가능합니다.
+따라서, 예술고 학생도 농어촌 지역의 중·고등학교에서 교육과정을 이수하고 거주한 경험이 있다면 해당 전형으로 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.9220861196517944</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기의 4등급 기록은 276~279 cm이며, 배점은 325점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.9382169842720032</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서 출결의 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.6310868859291077</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 정원 내 모집 인원이 40명입니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.9807137250900269</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 다음과 같은 일정으로 진행됩니다:
+- **일정**: 2024. 01. 17.(수)
+- **모집단위**: 시각디자인 / 산업디자인 / 공예디자인
+- **실기종목(택1)**: 기초디자인, 사고의 전환 중 하나 선택
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 주제A와 주제B 각 1개씩 선정하여 연결된 주제를 당일 추첨
+- **화지크기**: 켄트지3절
+- **시간**: 5시간
+이 정보는 제공된 문단에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.7260091304779053</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到东国大学（동국대학교）2024学年应用化学专业的具体高考最低标准。根据您给出的信息，似乎主要描述了各个学院和专业在2024年度的录取情况，包括最终注册人数、竞争比例等详细数据，但并未提及具体的高考最低分数线。
+如果您需要了解东国大学2024学年应用化学专业的高考最低标准，建议直接访问东国大学官方网站（https://ipsi.deu.ac.kr/main.do）查询最新的招生简章或联系学校的招生办公室获取准确信息。</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.3961582779884338</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과 
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+위와 같이 2024학년도에 신설된 학과들이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.9566206932067871</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율은 모든 모집단위에 적용되는 일반적인 규칙이며, 특정 단과대학이나 모집단위별로 변동이 없습니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.9565408229827881</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>东义大学在某些工科学院中对数学（微积分或几何）科目进行了加分。具体来说，对于以下情况会给予加成：
+- 对于参加数学（微积分/几何）科目的医学预科学校招生的学生，数学成绩的标准分将增加10%作为加分。
+因此，如果学生参加了数学（微积分或几何）考试，则其数学成绩的标准分会根据实际得分增加10%。其他学院和专业没有提到有类似的加成政策。
+如果您需要更详细的信息或者有特定的学科学习，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.403994232416153</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서 수능 성적은 다음과 같이 반영됩니다:
+1. **모집단위**: 전 모집단위 (레저스포츠학과, 태권도학과 제외)
+2. **수능 반영 영역**:
+   - 국어
+   - 수학
+   - 영어
+   - 탐구 (사회탐구 또는 과학탐구 중 2개 과목 선택)
+3. **반영 비율**: 각 영역별로 25%씩 반영됩니다.
+따라서, 총점 계산 시 다음과 같이 이루어집니다:
+- 국어 표준점수 × 0.25
+- 수학 표준점수 × 0.25
+- 영어 등급 점수 (등급에 따른 점수) × 0.25
+- 탐구 표준점수 (선택한 2개 과목의 평균) × 0.25
+이렇게 계산된 각 영역의 점수를 합쳐 최종 점수를 산출합니다.
+참고로, 레저스포츠학과와 태권도학과는 다른 방법으로 수능 성적을 반영하며, 이에 대한 자세한 내용은 해당 모집단위의 전형요소를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.859609842300415</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 실시되며, 날짜는 2024년 1월 16일(화)입니다.
+참조 정보:
+- 전형일정에서 "가군 실기고사 레저스포츠학과 태권도학과"의 일정은 2024. 01. 16.(화)로 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.9062480926513672</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 디자인조형학과와 체육학과가 제외됩니다. 
+이 점을 확인하기 위해 다음과 같은 정보를 참고하였습니다:
+- 나군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율에서:
+  - 모집단위은 디자인조형학과, 체육학과이며,
+  - 전형요소 반영비율의 수능은 30%이며,
+  - 전형요소 반영비율의 실기은 70%이다.
+- 나군 수능(일반학생전형), 실기/실적(일반학생전형) 동점자 처리기준에서:
+  - 모집단위은 디자인조형학과, 체육학과이며,
+  - 동점자 처리기준은 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수 상위자 등이 제시되어 있습니다.
+따라서, 나군 수능(일반학생전형)에서는 디자인조형학과와 체육학과가 제외된다는 것을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.9379733800888062</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서 수능 최저기준은 없습니다. 위 제공된 정보에 따르면, 다군 수능(일반학생전형)의 경우 모든 모집단위에 대해 수능 최저기준이 적용되지 않습니다.
+관련 내용을 요약하면:
+- "전형요소 반영비율에서 전형 유형은 수능 위주이며, 전형명은 다군 수능(일반학생전형) 전 모집단위이며, 모집 인원은 180이며, 사정 단계은 일괄 합산이며, 전형요소 반영비율(%)의 학생부 교과은 0이며, 전형요소 반영비율(%)의 출결은 0이며, 전형요소 반영비율(%)의 서류은 0이며, 전형요소 반영비율(%)의 면접은 0이며, 전형요소 반영비율(%)의 실기은 0이며, 전형요소 반영비율(%)의 수능은 100이며, 수능최저기준은 수능최저기준 없음이다."
+따라서, 다군 수능(일반학생전형)에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.8391233682632446</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+위와 같은 학과들이 2024학년도에 학부에서 학과로 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.9904575347900391</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수(인터넷)의 마감일은 2024. 01. 06.(토) 18시까지입니다.
+원서접수와 관련된 주요 일정은 다음과 같습니다:
+- **일정**: 2024. 01. 03.(수) ~ 2024. 01. 06.(토)
+- **마감 시간**: 18시까지
+이 정보는 제공된 문헌에서 직접 추출한 것입니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.7630754709243774</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 주요 전형들은 다음과 같습니다:
+1. **학생부종합(성인학습자(정원내)전형)**:
+   - **변경 전**: 학생부 종합 평가 70% + 면접 30%
+   - **변경 후**: 학생부 종합 평가 60% + 면접 40%
+2. **학생부교과(평생학습자전형)**:
+   - **변경 전**: 반영 과목은 국어, 수학, 영어 교과 중 석차등급 상위 8과목
+   - **변경 후**: 반영 과목은 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+3. **학생부교과(성인학습자(정원내)전형)**:
+   - **변경 전**: 반영 과목은 국어, 수학, 영어 교과 중 석차등급 상위 8과목
+   - **변경 후**: 반영 과목은 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+4. **학생부교과(성인학습자(정원외)전형)**:
+   - **변경 전**: 반영 과목은 국어, 수학, 영어 교과 중 석차등급 상위 8과목
+   - **변경 후**: 반영 과목은 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+5. **학생부종합(재직자전형)**:
+   - **변경 전**: 서류 70% + 면접 30%
+   - **변경 후**: 서류 70% + 면접 30%
+이러한 변화는 주로 반영 과목의 범위와 비율, 그리고 학생부 종합 평가의 비중에 대한 조정을 포함하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.9272095561027527</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이 정보는 "가군 실기/실적(일반학생전형) 전형요소 반영비율" 섹션에서 확인할 수 있습니다. 해당 내용에 따르면, 모집단위가 레저스포츠학과와 태권도학과인 경우, 수능은 30%이고 실기는 70%입니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.9605621099472046</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공을 포함하고 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+这三个专业共同构成了新的Life Fusion Department。</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.7961016893386841</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. **레저스포츠학과**
+   - 실기종목: 제자리 멀리뛰기, Z-런
+2. **태권도학과**
+   - (실기고사는 동점자 처리를 위한 용도로 사용)
+따라서, 가군에서 실기고사를 진행하는 학과는 레저스포츠학과와 태권도학과입니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.8374655246734619</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "가군 실기/실적(일반학생전형)"은 다음과 같은 학과에 적용됩니다:
+- 레저스포츠학과
+- 태권도학과
+이 두 학과는 2024학년도에 실기/실적 위주 전형을 통해 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.9409076571464539</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학 라이프융합학부는 다음과 같은 신설 전공들을 제공합니다:
+1. 스타트업 창업 투자학
+2. 뷰티 비즈니스학 
+3. 라이프 생활 문화학
+이러한 세 가지 전공으로 구성되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.7073724865913391</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？如果是的话，请告诉我你所在的高中类型（普通高中、自主高中、科学高中、国际高中、外语高中、艺术高中、体育高中、特长高中、职业高中、特色化高中、特色化高中（职业教育）、英才学校、其他承认学历的高中、成人教育学校、自学中学、各种学校或高考合格者），以便我能更准确地回答你的问题。
+根据提供的信息，如果你是科学高中、国际高中或外语高中的学生，你是可以申请一般学生入学考试的。如果是艺术高中或体育高中的学生，你也可以申请。特长高中、职业高中、特色化高中（职业教育）、英才学校、其他承认学历的高中、成人教育学校、自学中学和各种学校的学生成绩合格者也是可以申请的。
+如果你是高考合格者，则同样可以申请一般学生入学考试。
+请确认你的具体情况，以便我能给出更准确的答案。如果不确定，请访问“https://ipsi.deu.ac.kr/main.do”以获取更多信息。</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.3886701464653015</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인하기 위해 각 학과의 정원 내 모집 인원을 살펴보겠습니다.
+1. 상경대학 금융경영학과 : 50명
+2. 공과대학 자동차공학과 : 37명
+3. 공과대학 조선해양공학과 : 36명
+4. 공과대학 신소재공학과 : 52명
+5. 인문사회과학대학 아동학과 : 40명
+6. 의료·보건·생활대학 간호학과 - 교직 - 간호교육인증 : 110명
+이 중에서 가장 많은 정원 내 모집 인원을 보이는 학과는 **의료·보건·생활대학 간호학과 - 교직 - 간호교육인증**으로, 110명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.9109337329864502</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你是特教高中学生，可以申请동义大学的学生部教科农村学生类型招生。
+根据提供的信息，在「고교유형별 지원자격」部分提到：
+- 特殊目的高中（科学高、国际高、外语高）是可以申请的。
+- 其他类型的高中也是可以申请的。
+在「나군 학생부교과(농어촌학생전형) - 정원외 모집단위 및 모집인원」部分提到：
+- 一般高中是可申请的。
+- 特殊目的高中（科学高、国际高、外语高）也是可申请的。
+因此，你是特教高中学生是可以申请东义大学的学生部教科农村学生类型的招生的。你需要满足相应的条件和提交所需的文件资料。
+更多详细信息可以参考东义大学官网：https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.5135384202003479</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최종등록자와 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균을 비교해보겠습니다.
+**최종등록자:**
+- 평균 점수: 330.11
+**최초합격자:**
+- 평균 점수: 330.11
+따라서, 2024학년도 소프트웨어공학부의 합격자(최종등록자와 최초합격자를 포함)의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **330.11**입니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.7501172423362732</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.
+추가적으로, 영어 등급의 평균은 3.30이며, 수능 4개 영역 등급의 평균은 4.12입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.8495230674743652</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024학년도 합격자 발표 일정에 따르면, 나군(&lt;나&gt;군) 학생부교과(농어촌학생전형)와 같은 여러 전형의 최초 합격자 발표는 2024년 2월 2일 금요일 오후 2시입니다. 
+이후 추가적인 충원 합격자는 다음과 같이 발표됩니다:
+- 1차 충원 합격자 발표: 2024년 2월 14일 수요일 오전 9시
+- 1차 충원 합격자 등록: 2024년 2월 14일 수요일 오전 9시 ~ 오후 4시
+- 2차 충원 합격자 발표: 2024년 2월 15일 목요일 오전 9시
+- 2차 충원 합격자 등록: 2024년 2월 15일 목요일 오전 9시 ~ 오후 4시
+- 3차 이후 충원 합격자 발표: 2024년 2월 20일 화요일 오후 6시까지 (개별 전화 통보)
+따라서, 최초 합격자 발표는 2024년 2월 2일이며, 이후 추가적인 충원 합격자는 지정된 일시에 개별적으로 발표됩니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.8773753643035889</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 면접고사의 정확한 일정은 명시되어 있지 않습니다. 일반적으로 면접일정은 입학처 웹사이트 또는 개별 모집단위에서 공지됩니다. 따라서 가장 신뢰할 수 있는 방법은 다음과 같습니다:
+1. **입학처 웹사이트 확인**: https://ipsi.deu.ac.kr/main.do 에 접속하여 최신 정보를 확인하세요.
+2. **개인 메일 확인**: 등록한 메일로 면접 일정이 공지될 것입니다.
+3. **상담 요청**: 입학사정관 사무실이나 학부 관계자에게 직접 문의해 보세요.
+면접일정은 일반적으로 수능 결과 발표 후 또는 그 이후에 결정되므로, 정확한 날짜와 시간을 미리 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.7621979117393494</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 명확한 한의예과 최저학력기준 정보가 제공되지 않았습니다. 일반적으로 한의예과는 특별한 학력 기준이 있을 수 있으며, 이는 대학이나 교육부의 공식 안내를 통해 확인할 수 있습니다.
+관련 정보를 얻으시려면 다음과 같은 웹사이트를 참조해보세요:
+- https://ipsi.deu.ac.kr/main.do
+또한 각 대학의 입학처 웹사이트나 전화로 문의하시면 가장 정확하고 최신의 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.5031791925430298</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 제공된 데이터에서는 특정 단과대학이나 모집단위별로 수능 최저학력 기준을 명시적으로 언급하고 있지 않습니다. 
+특히 전형요소 반영비율에서 다음과 같이 나와 있습니다:
+- 가군 수능(일반학생전형) 전 모집단위(레저스포츠학과, 태권도학과 제외): 수능최저기준 없음
+- 나군 수능(일반학생전형) 전 모집단위(한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외): 수능최저기준 없음
+- 다군 수능(일반학생전형) 전 모집단위: 수능최저기준 없음
+따라서, 현재 제공된 정보로는 특정 단과대학이나 모집단위별로 명시적인 수능 최저학력 기준이 없다고 볼 수 있습니다. 하지만 각 학교나 대학은 매년 정시모집에서 수능 최저학력기준을 설정할 수 있으므로, 최신 정보를 확인하기 위해서는 해당 대학의 입학처 웹사이트 또는 공식 안내서를 참조하는 것이 좋습니다.
+더 자세한 내용이나 변경사항이 있는 경우, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크를 통해 확인해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.653158962726593</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 09:00부터 2차 충원합격자 발표가 시작됩니다. 이후 3차 충원합격자는 2024년 2월 20일(화) 18시까지 개별 전화 통보를 통해 발표될 예정입니다.
+상세 일정은 다음과 같습니다:
+- **1차 충원 합격자 발표**: 2024. 02. 14.(수) 09:00
+- **1차 충원 합격자 등록**: 2024. 02. 14.(수) 09:00~16:00
+- **2차 충원 합격자 발표**: 2024. 02. 15.(목) 09:00
+- **2차 충원 합격자 등록**: 2024. 02. 15.(목) 09:00~16:00
+- **3차 이후 충원 합격자 발표 및 등록**: 2024. 02. 15.(목) 19:00부터 2024. 02. 20.(화) 18시까지 개별 전화 통보를 통해 이루어집니다.
+발표와 등록에 대한 자세한 내용은 입학 안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.9621451497077942</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024학년도 추가합격자 발표 일정은 다음과 같습니다:
+- 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+- 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00~16:00
+- 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+- 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00~16:00
+추가적으로, 3차 이후의 충원 합격자는 개별 전화 통보를 통해 발표되며, 일정은 2024. 02. 15.(목) 19:00부터 2024. 02. 20.(화) 18시까지입니다.
+발표 및 등록에 대한 자세한 내용은 입학안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.9545792937278748</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到是否进行额外招生（추가모집）的内容。为了获取准确的信息，建议访问以下网站以获得最新的招生政策和通知：
+https://ipsi.deu.ac.kr/main.do
+您可以查看该网站上的最新公告或联系学校的招生办公室以确认是否有额外的招生计划。</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.4534239768981934</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자를 대상으로 하는 입학 전형 중 하나입니다. 이 전형에서는 지원자의 평생 학습 경력과 경험, 그리고 해당 전공과의 적합성을 종합적으로 평가합니다.
+### 평생학습자전형의 주요 특징:
+1. **평가 영역 및 기준**:
+   - **공동체역량**: 협업능력, 공동체 목표를 위한 협력적 태도, 나눔과 배려, 학교폭력 여부 등.
+   - **학업역량**: 학업에 대한 흥미와 주도적 노력, 수업시간의 적극적인 참여, 학업 성취 정도, 학년별 성적 추이 등.
+   - **전공적합성**: 지원 전공(계열)과 관련된 활동과 경험, 해당 전공에 대한 열정 및 학업 의지, 학교생활의 적극적인 참여 등.
+2. **서류평가**:
+   - **학교생활기록부**: 교과학습발달상황, 창의적체험활동상황, 행동특성 및 종합의견 등을 평가합니다.
+   - **면접평가**: 학업역량과 전공적합성을 중심으로 면접을 실시하며, 지원동기와 학업계획, 학업 역량, 전공 적합성 등에 대한 질문이 주로 제시됩니다.
+3. **면접평가**:
+   - **평가 영역 및 배점**:
+     - **학업역량**: 1등급 180점, 2등급 166.5점, 3등급 153점, 4등급 139.5점, 5등급 126점.
+     - **전공적합성**: 1등급 120점, 2등급 111점, 3등급 102점, 4등급 93점, 5등급 84점.
+4. **동점자 처리기준**:
+   - 동점자가 발생할 경우, 우선 면접고사 성적 상위자를 순위로 정합니다.
+   - 다음으로 서류평가에서 공동체역량 영역 성적이 높은 지원자를 순위로 정합니다.
+   - 마지막으로 서류평가에서 전공적합성 영역 성적이 높은 지원자를 순위로 정합니다.
+5. **제출서류**:
+   - **고교 졸업(예정)자**: 고교 학교생활기록부 1부 (온라인 제공 동의자는 제출할 필요 없음).
+   - **검정고시 출신자**: 검정고시 합격증서 사본 또는 합격증명서 1부, 검정고시 성적증명서 1부.
+   - **외국고교 졸업(예정)자**: 공증받은 외국고교 졸업(예정)증명서 1부, 공증받은 외국고교 성적증명서 1부.
+### 참고사항:
+- 서류평가와 면접평가에서 제출된 내용의 진위여부를 확인하기 위해 면접 시 서류평가 질문지를 활용합니다.
+- 학생생활기록부 작성 과정에서 허위사실을 기재하거나 동일한 내용을 의도적으로 반복 기재하는 등의 부정적 사례는 감점 또는 불합격 처리될 수 있습니다.
+이러한 정보를 바탕으로 평생학습자전형에 지원하려는 학생들은 자신의 경력과 경험을 잘 준비하고, 서류와 면접에서 진실성을 유지하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.8312481641769409</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. **일반고, 자율고, 특수목적고(과학고, 국제고, 외국어고), 예술고, 체육고, 마이스터고, 특성화고(특성:직업, 대안), 영재학교, 기타의 학력인정고, 기타의 방송통신고, 기타의 각종학교**는 지원 가능합니다.
+2. **검정고시**와 **외국고**는 지원 불가능합니다.
+3. **특수목적고(마이스터고) 및 특성화고(특성:직업)**는 특별한 조건 없이 지원 가능합니다.
+4. **일반고, 자율고, 특수목적고(과학고, 국제고, 외국어고), 예술고, 체육고**는 특성화고 교육과정 또는 1년 이상의 직업교육훈련 과정을 이수한 경우만 지원 가능합니다.
+5. **특성화고(특성:대안)**는 특별한 조건 없이 지원 가능하지만, 일반고, 자율고, 특수목적고(과학고, 국제고, 외국어고), 예술고, 체육고의 경우 1년 이상의 직업교육훈련 과정을 이수한 경우에만 지원 가능합니다.
+6. **영재학교, 기타의 학력인정고, 기타의 방송통신고, 기타의 각종학교**는 특별한 조건 없이 지원 가능하지만, 일반고, 자율고, 특수목적고(과학고, 국제고, 외국어고), 예술고, 체육고의 경우 1년 이상의 직업교육훈련 과정을 이수한 경우에만 지원 가능합니다.
+7. **검정고시**와 **외국고**는 지원 불가능합니다.
+이러한 자격 조건은 모집군과 전형명에 따라 약간 다르게 적용될 수 있으므로, 구체적인 모집단위와 전형명을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.7334540486335754</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 해당 모집단위와 관련된 장소에서 진행됩니다. 예를 들어:
+- 레저스포츠학과의 제자리 멀리뛰기와 Z-런은 특별한 시설이 있는 곳에서 실시될 것입니다.
+- 태권도학과의 품새, 시범, 겨루기는 태권도관에서 진행될 것입니다.
+일반적으로 각 모집단위가 제공하는 실기시험장소를 참조해야 합니다. 입학처 웹사이트나 해당 모집요강을 확인하여 정확한 장소와 시간을 파악하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.4552044868469238</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+1. **모집단위**: 체육학과입니다.
+2. **실기종목**:
+   - 제자리 멀리뛰기 (배점 비율: 240점 / 24%)
+   - 메디신볼 던지기 (배점 비율: 243점 / 23%)
+   - Z-런 (배점 비율: 230점 / 23%)
+실기고사는 이 세 가지 종목 중 하나를 선택하여 응시하게 됩니다. 각 종목은 시간이 다르지 않고, 모두 5시간 동안 진행됩니다.
+따라서 체육학과를 지원하는 학생들은 해당 모집단위에 따라 실기고사를 준비해야 하며, 선택한 종목에 따라 준비물을 가져가야 합니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.5412903428077698</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024년도 수시 충원합격자 발표 후 3차 이후 (개별 전화 통보)로 발표되는 합격자는 개별 전화 통보를 받게 됩니다. 이전 단계의 합격자는 홈페이지에서 개별 조회를 통해 결과를 확인할 수 있습니다.
+따라서, 충원합격자 발표 후 3차 이후에 합격 사실을 알기 위해서는 개별 전화 통보를 기다려야 합니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.6172788739204407</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 정확한 수시모집 결과 정보가 제공된 문서에서 명시되어 있지 않습니다. 하지만, 2024학년도 경찰행정학과의 모집 상황에 대한 정보를 제공해 드리겠습니다.
+2024학년도 경찰행정학과의 경우 다음과 같은 정보가 있습니다:
+- 단과대학: 인문사회과학대학
+- 2024학년도 모집단위: 경찰행정학과 
+- 모집인원: 7명
+- 지원인원: 29명
+- 경쟁률: 4.14
+- 충원 합격 (후보순위): 7명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 332.86
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 4.97
+- 영어 등급의 평균: 4.00
+- 영어 등급의 표준 편차: 0.53
+- 수능 4개 영역 등급의 평균: 4.12
+- 수능 4개 영역 등급의 표준 편차: 0.18
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 447.86
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차: 5.41
+위와 같은 정보를 바탕으로, 2023학년도 경찰행정학과의 경우 해당 정보가 제공되지 않았으므로 정확한 수시모집 결과는 확인할 수 없습니다. 더 자세한 정보를 얻기 위해서는 대학교 입학처나 관련 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.8220893144607544</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 답변을 하기 어렵지만, 일반적으로 일부 학생부종합전형에서는 수능 응시 여부와 관계없이 지원이 가능합니다. 예를 들어, 나군의 농어촌학생전형과 평생학습자전형(성인학습자, 재직자) 등은 수능 응시 여부에 상관없이 지원할 수 있는 전형들이 있습니다.
+하지만 특정 학과나 전형에서는 수능 점수를 반영하거나, 수능 응시가 필수일 수 있으므로, 정확한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do) 또는 상담을 통해 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.8035982847213745</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 일반적으로 고등학교 졸업 후 10년 이상 경과한 경우 정시모집의 대상에서 제외될 가능성이 높습니다. 대부분의 대학은 최소 3년 이내의 고교 졸업자 또는 법령에 따른 동등 학력 소지자를 대상으로 합니다.
+하지만, 일부 특별전형이나 정원 외 모집 등에서는 예외적으로 지원이 가능할 수 있습니다. 예를 들어:
+1. **평생학습자전형 (성인학습자 전형)**: 이는 고등학교 졸업 후 3년 이상 경과한 성인 학습자를 대상으로 합니다. 이 경우에도 특정 조건을 충족해야 하며, 지원 자격 및 서류 제출 등에 대한 세부 사항은 해당 대학의 입시 안내를 확인해야 합니다.
+2. **재직자전형**: 일부 대학에서는 재직자가 학업을 병행할 수 있는 특별전형을 운영하고 있습니다. 이 경우에도 재직 기간, 직무 경력 등이 요구될 수 있습니다.
+따라서, 정확한 지원 가능 여부를 확인하려면 해당 대학의 입시 안내 사이트 (https://ipsi.deu.ac.kr/main.do) 또는 입학처와 직접 문의하는 것이 가장 확실합니다. 각 전형별 세부 조건과 지원 자격을 체크하여 적합한 전형을 선택하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.6738243103027344</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 정시 모집일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화요일)
+   - 이날 입학 안내 홈페이지에서 모집 인원이 공고됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수요일) ~ 2024년 1월 6일 (토요일)
+   - 마감 시간은 각 전형별로 다르지만, 대부분 18시까지입니다.
+   - 원서 접수 사이트: [http://ipsi.deu.ac.kr](http://ipsi.deu.ac.kr) 또는 [http://www.uwayapply.com](http://www.uwayapply.com)
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일 (수요일) ~ 2024년 1월 12일 (금요일)
+   - 마감 시간은 17시까지입니다.
+   - 서류 제출 대상은 전형별로 다르며, 세부 안내를 확인해야 합니다.
+4. **&lt;가&gt;군 실기고사**: 레저스포츠학과와 태권도학과 (2024년 1월 16일 화요일)
+   - 대기실 및 입실 시간 안내는 2024년 1월 12일 금요일 오후 14시 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+5. **&lt;나&gt;군 실기고사**: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)와 체육학과 (2024년 1월 17일 수요일)
+   - 대기실 및 입실 시간 안내는 2024년 1월 12일 금요일 오후 14시 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금요일) 오후 14시
+     - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일 (수요일) ~ 2024년 2월 13일 (화요일)
+     - 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행입니다.
+   - 충원 합격자 발표 및 등록: 
+     - 1차 (인터넷) 발표 및 등록: 2024년 2월 14일 (수요일) 오전 9시 ~ 오후 4시
+     - 2차 (인터넷) 발표 및 등록: 2024년 2월 15일 (목요일) 오전 9시 ~ 오후 4시
+   - 3차 이후 (개별 전화 통보) 발표 및 등록: 2024년 2월 15일 (목요일) 오후 7시 ~ 2024년 2월 20일 (화요일) 오후 6시
+이 일정은 일반적인 정시 모집일정이며, 각 전형별로 세부 사항이나 변경사항이 있을 수 있으므로 공식 입학 안내 홈페이지를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.9672055840492249</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 내용: 각 학과별 모집 인원이 확정된 것을 공고합니다.
+2. **원서접수(인터넷)**:
+   - 날짜: 2024. 01. 03.(수) ~ 2024. 01. 06.(토)
+   - 마감 시간: 18시까지
+   - 비고: 원서 접수는 인터넷을 통해 진행하며, 주의사항은 입학안내 홈페이지를 참조해야 합니다.
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 날짜: 2024. 01. 03.(수) ~ 2024. 01. 12.(금)
+   - 마감 시간: 17시까지 도착
+   - 비고: 서류 제출 대상은 각 전형별 세부 안내를 참조해야 하며, 제출 방법은 접수 사이트에서 우편발송용 표지를 출력하여 부착하거나 직접 우편으로 발송할 수 있습니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실 시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 확인 가능합니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실 시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 확인 가능합니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: *발표: 홈페이지에서 개별 조회 * 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: 동일
+   - 충원 합격자 발표 및 등록: 
+     - 1차 (인터넷): 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 2차 (인터넷): 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 3차 이후 (개별 전화 통보): 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+       - 비고: 동일
+이 일정은 각 학과별로 다소 차이가 있을 수 있으므로, 최종 일정은 입학안내 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.9012402296066284</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 다음과 같습니다:
+1. **학생부종합(성인학습자(정원외)전형)** - 이 전형에서는 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로 구성되어 있으며, 수능 미응시자도 지원이 가능합니다.
+2. **학생부종합(성인학습자(정원내)전형)** - 이 전형에서는 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자로 구성되어 있으며, 수능 미응시자도 지원이 가능합니다.
+따라서, 수능 미응시자를 포함하여 성인학습자 전형을 지원하려는 경우 위의 두 전형 중 하나를 선택할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.6109529137611389</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로 전년도, 즉 2023학년도의 전자공학과 관련 정보는 직접 제공되지 않았습니다. 하지만 주어진 2024학년도의 데이터에서 전자공학과의 경우 다음과 같은 정보가 있습니다:
+- 모집 인원: 69명
+- 지원 인원: 105명
+- 경쟁률: 1.52
+- 충원 합격 (후보순위): 36명
+이 정보만으로는 전년도의 데이터를 추론하기 어렵습니다. 만약 전년도의 전자공학과 관련된 자료가 필요하다면, 제공된 링크인 "https://ipsi.deu.ac.kr/main.do"를 통해 확인해 보시거나, 해당 대학 입학처에 직접 문의하시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.8397434949874878</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。如果您需要联系东义大学入学处，建议您访问其官方网站（https://ipsi.deu.ac.kr/main.do），通常学校官网会有联系方式页面，上面会列出入学处或其他相关部门的联系电话和电子邮件等信息。
+如果需要进一步的帮助或具体信息，请告诉我！我可以帮助您查找其他相关信息。</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.3842313885688782</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원 합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우 대체 방법이 필요합니다. 일반적으로 다음과 같은 절차를 따르는 것이 일반적입니다:
+1. **재전화 시도**: 초기에는 여러 번 재전화를 시도할 수 있습니다.
+2. **메시지 남기기**: 전화에 응답하지 않으면 메시지를 남겨 합격 사실을 통보하고, 다시 연락하기 위한 방법을 안내합니다.
+3. **추가 연락처 활용**: 학생이 제공한 추가연락처를 통해 연락을 시도할 수 있습니다.
+4. **입학관리팀 방문**: 학생이 직접 입학관리팀을 방문하여 확인할 수 있는 기회를 제공합니다.
+具体的来说，如果电话联系不上候选人，学校通常会采取以下步骤：
+1. **多次重拨**：最初可能会尝试多次拨打。
+2. **留言通知**：如果无人接听，则会在电话中留消息告知录取结果，并提供再次联络的方法。
+3. **使用备用联系方式**：利用考生提供的其他联系方式进行联系。
+4. **亲自到访**：为考生提供亲自前往招生办公室确认的机会。
+如需进一步详细信息，建议访问学校官网或直接咨询入学会诊中心。</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.6897326707839966</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다:
+1. **지원자 본인의 가족관계증명서** (1부)
+2. **지원자 본인, 부모의 주민등록초본** (각 1부, 총 3부)
+3. **중학교 학교생활기록부** (1부) - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+4. **고등학교 학교생활기록부** (1부) - 학생부 온라인 제공 비대상교 및 미동의자일 경우 제출
+이 외에 다음과 같은 추가 서류가 필요할 수 있습니다:
+- **사망한 부 또는 모의 기본증명서 1부** (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부를 추가로 제출)
+- **친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부** (부모가 이혼한 경우)
+또한, 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 발급)를 2024. 02. 16.(금)까지 추가 제출해야 합니다.
+이러한 서류들은 농어촌 지역에서의 거주와 교육과정 이수 여부를 증명하기 위해 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.9205201864242554</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야 하는 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부 
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+  ※ 중·고등학교 재학 시 부, 모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정' 서류제출 가능
+- 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이러한 서류들은 지원자의 초등학교부터 고등학교까지의 학교생활 기록을 반영하며, 농어촌 거주 경력을 확인하기 위한 것입니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.9112148284912109</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로, 저소득 기회균등 전형에 대한 명확한 언급이 없습니다. 따라서, 현재의 정보에서는 정시모집에서 저소득 기회균등 전형이 실시되지 않는 것으로 보입니다.
+만약 저소득 기회균등 전형이 존재한다면, 일반적인 대학입시와 마찬가지로 별도의 전형명과 모집인원 등이 명시되어 있을 것입니다. 제공된 내용에서는 관련 정보가 없으므로, 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 확인하시거나, 입학처에 직접 문의하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.7718358039855957</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2.5등급은 절사되지 않고, 그대로 반영됩니다.
+수능 사탐(사회탐구)의 등급은 정수로만 처리되며, 소수점이 있는 경우도 포함하여 평균을 계산한 후 그대로 반영합니다. 따라서 2.5등급이 나온다면, 이는 실제 점수가 해당 등급에 해당하는 수준임을 의미하며, 이를 3등급으로 절사하지 않고 2.5등급 그대로 반영하게 됩니다.
+예를 들어:
+- 2등급과 3등급의 학생이 각각 한 과목씩 응시했을 때, 평균이 2.5가 나온다면 이는 실제 성적을 반영한 결과이며, 절사되지 않습니다.
+따라서 수능 사탐에서 2.5등급이 나오면 그대로 2.5등급으로 학생의 성적이 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.7865719795227051</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다.
+1. 첫 번째 충원 합격자 발표 일정은 2024년 2월 14일(수) 09:00입니다.
+2. 두 번째 충원 합격자 발표 일정은 같은 날인 2024년 2월 15일(목) 09:00입니다.
+3. 세 번째 충원 합격자 발표 일정은 2024년 2월 20일(화)까지 진행됩니다.
+각 차례별로 다음과 같은 공통사항이 있습니다:
+- 발표 방법: 홈페이지에서 개별 조회
+- 고지서 교부 방법: 홈페이지에서 출력 또는 입학관리팀에서 수령 
+- 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+따라서 정시 충원 합격자 발표는 총 3차로 이루어져 있습니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.8812498450279236</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024학년도에 e비즈니스학과의 모집인원과 지원 인원, 경쟁률 등을 고려해보겠습니다.
+- **모집인원**: 10명
+- **지원인원**: 81명
+- **경쟁률**: 8.1:1
+수능 성적 4.6은 등급으로 보면 약 B+ 등급입니다. 수능 반영 영역 및 가산점에서 e비즈니스학과는 국어, 수학(확률과통계 또는 미적분 또는 기하), 영어, 탐구 영역 중 상위 3개 영역을 반영합니다.
+수능 성적이 4.6이면:
+- **국어**: B+ (약 80점)
+- **수학**: B+ (약 75점)
+- **영어**: B+ (약 70점)
+이 중에서 가장 낮은 영역인 수학을 제외하고 국어와 영어를 반영하면:
+- **국어 + 영어 = 150점 + 140점 = 290점**
+평균 점수는 약 3.85입니다 (등급 평균치 참조: https://www.kyungpook.ac.kr/ko/notice/notice_06/sub07/sub07_01.jsp).
+이 수준의 성적은 경쟁률이 높은 만큼 추가 합격 가능성은 낮을 것으로 보입니다. 하지만 최종 등록자들의 평균 점수가 4.29이고, 표준 편차가 0.35라는 것을 고려하면, 수능 성적이 약간 높아도 충분히 합격 가능성은 있습니다.
+따라서, 수능 성적 4.6이면 추가 합격 가능성은 있으나 경쟁률과 지원 인원을 고려할 때 낮은 확률로 보여집니다. 최종 결정은 입학사정관의 평가와 전형 절차에 따라 달라질 수 있습니다.
+추가적으로, 서류평가와 면접 성적도 중요한 요소이므로, 이 부분에서도 우수한 결과를 얻는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.7640461921691895</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 수능 최초합격자들의 평균 등급은 4.17이며, 표준 편차는 0.19입니다. 이 데이터를 바탕으로 분석하면:
+- 평균 등급이 4.17이고 표준 편차가 0.19인 분포에서, 정시 등급 5.3은 상당히 높은 수치입니다.
+- 일반적으로, 평균보다 몇 개 단위 이상 떨어진 점수는 합격 가능성에 부정적인 영향을 미칠 가능성이 있습니다.
+따라서, 정시 등급이 5.3인 경우 e비즈니스학과의 최초합격은 매우 낮을 것으로 예상됩니다. 대신, 다른 전형이나 후보순위를 고려하는 것이 좋을 수 있습니다.
+만약 더 자세한 정보나 추가적인 분석이 필요하다면, 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시거나 직접 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.7911632061004639</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2024학년도 입시 정보를 바탕으로 e비즈니스학과 전공의 경우, 모집인원과 지원 인원을 고려하면 경쟁률이 높아 보입니다. 현재 제공된 데이터에서 e비즈니스학과는 다음과 같은 특징을 가집니다:
+- **모집인원**: 10명
+- **지원 인원**: 38명
+따라서 이 경우의 경쟁률은 약 3.8:1입니다.
+**평가 기준 및 방법**:
+- **수능 평균 점수**: 수능 국어, 수학, 영어 등급을 반영하며, 각 과목별로 표준점수를 계산하여 합산합니다.
+- **서류 평가**: 지원자의 학교생활기록부와 서류를 통해 공동체역량, 학업역량, 전공적합성 등을 평가합니다.
+**동점자 처리 기준**:
+1. 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수 상위자
+2. 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자
+3. 공과대학, ICT융합공과대학 모집단위 수능 수학(미적분 또는 기하) 응시자
+**추천 사항**:
+1. **수능 성적**: 최고의 수능 점수를 얻는 것이 중요합니다.
+2. **서류 준비**: 학교생활기록부에서 공동체역량, 학업역량, 전공적합성을 잘 보여줄 수 있도록 작성해야 합니다.
+3. **면접 준비**: 면접에서는 지원동기와 학업계획, 학업역량 및 전공적합성에 대해 명확하게 답변할 수 있어야 합니다.
+**결론**:
+- 현재의 경쟁률 3.8:1은 높지만, 최상위권의 성적이 있다면 예비합격 가능성은 있습니다.
+- 그러나 이정도만으로는 확실한 예비합격을 보장하기 어렵습니다. 추가적인 준비와 노력이 필요합니다.
+추가 정보나 자세한 질문이 있으시다면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.7227520942687988</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 지원 자료를 보면, 경쟁률이 매우 높은 편이며 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 353.48에 달합니다. 또한, 이 과정에서 지원자의 영어 등급 평균이 2.34로 매우 낮습니다.
+당신의 성적(국어+수학+탐구: 3.44)은 간호학과의 평균 점수와 비교해보면 상대적으로 높지 않습니다. 그러나 간호학과는 경쟁률이 높고, 특히 영어 등급이 낮을 경우 합격 가능성은 더욱 낮아질 수 있습니다.
+그러나 합격 여부는 단순히 성적만으로 판단하는 것이 아닙니다. 면접 성적이 중요하며, 지원자의 전반적인 역량과 적합성도 고려됩니다. 따라서 다음과 같은 점들을 확인해보세요:
+1. **면접 준비**: 면접 질문 공통문항을 잘 이해하고 답변할 수 있도록 미리 준비하세요.
+2. **서류 제출**: 서류 평가에서 좋은 성적을 받기 위해 지원 동기를 명확하게 표현하고, 학업 계획과 전공 적합성을 잘 설명해야 합니다.
+3. **추천서 및 자기소개서**: 추천서와 자기소개서를 통해 자신의 장점과 특별한 경험을 강조하세요.
+결론적으로, 당신의 성적만으로는 간호학과에 합격하기 어렵다고 볼 수 있지만, 면접과 서류 평가에서 좋은 점수를 받으면 가능성이 열리게 될 수 있습니다. 따라서 전반적인 준비를 철저히 하여 최선을 다하는 것이 중요합니다.
+더 자세한 정보나 도움이 필요하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.7542968392372131</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 동의대학교 간호학과의 경쟁률과 모집인원을 고려할 때 상대적으로 낮은 수치입니다. 하지만 여전히 최종합격 가능성은 있습니다. 아래 몇 가지 요소를 고려해볼 필요가 있습니다:
+1. **경쟁률**: 2024학년도에 지원한 간호학과의 경쟁률이 6.59였습니다. 이는 상대적으로 높은 수치로, 평균적인 점수가 더 높은 학생들이 많았음을 의미합니다.
+2. **모집인원**: 모집 인원이 22명이라는 점을 고려해야 합니다. 경쟁률이 높더라도 모집 인원이 많아서 일부 낮은 점수의 지원자가 합격할 가능성도 있습니다.
+3. **기타 평가 요소**: 동의대학교는 간호학과에서 서류평가와 면접평가를 실시합니다. 따라서 국어, 수학, 탐구 등 과목별 성적 외에도 학업역량, 전공적합성 등의 평가가 이루어집니다.
+4. **면접 및 서류 평가**: 면접과 서류 평가는 지원자의 전반적인 역량을 종합적으로 판단하는 중요한 요소입니다. 따라서 좋은 면접 성적이나 강한 학업역량, 전공적합성 등을 보여줄 수 있다면 합격 가능성은 높아질 것입니다.
+5. **추천서 및 자기소개서**: 추천서와 자기소개서 등 서류평가에서 긍정적인 평가를 받을 경우에도 도움이 될 수 있습니다.
+6. **특기사항 및 활동 경력**: 특기사항이나 관련 활동 경력을 잘 보여줄 수 있다면 이는 합격에 긍정적으로 작용할 수 있습니다.
+결론적으로, 2.52라는 점수만으로는 확실한 합격을 보장하기 어렵지만, 다른 평가 요소들을 잘 준비하고 활용한다면 최종합격 가능성은 존재합니다. 추천서 작성, 면접 준비 등 추가적인 지원 활동에 집중하는 것이 좋습니다.
+추가적으로, 동의대학교 입학사정관이나 관련 부서에 문의하여 자세한 정보를 얻는 것도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.7486344575881958</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>2024학년도 간호학과의 경우, 모집단위와 지원 인원이 많은데다가 경쟁률이 높습니다(6.59). 정시 성적이 3.7인 경우, 다음과 같은 요소들을 고려해야 합니다:
+1. **수능 점수**: 수능 점수가 중요합니다. 평균적으로 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균은 353.48입니다. 이보다 높은 점수를 가지고 있다면 유리할 것입니다.
+2. **영어 등급**: 영어 등급도 중요합니다. 평균적으로 영어 등급의 평균은 2.34이며, 이보다 높은 등급을 가지고 있다면 도움이 될 수 있습니다.
+3. **전형 유형**: 간호학과는 일반적으로 수능 위주로 전형을 진행합니다. 따라서 수능 점수가 중요하게 작용할 것입니다.
+4. **경쟁률**: 경쟁률이 높기 때문에, 평균 이상의 성적을 가지고 있어야 합니다.
+5. **추천서나 면접 등 추가 요소**: 일부 학교에서는 추천서나 면접 등을 통해 개인적인 특성을 평가하기도 합니다.
+따라서 정시 성적이 3.7인 경우, 간호학과에 합격할 가능성은 낮지만, 수능 점수가 높다면 기회는 열려 있습니다. 특히 수능 점수와 영어 등급이 평균 이상일 때 더 유리해질 것입니다.
+추가적으로, 정확한 확률을 예측하기 위해서는 해당 대학의 최종 합격자들의 성적 분포를 확인하고, 자신의 성적이 어느 위치에 있는지를 파악하는 것이 중요합니다. 또한, 다른 전형(예: 특기자전형 등)도 고려해 볼 수 있습니다.
+추가 정보나 자세한 조언이 필요하시다면, 해당 대학의 입학처 웹사이트를 확인하거나 합격자들의 성적을 분석하는 것이 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.7231138944625854</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집인원은 145명이며, 지원 인원은 37명으로 경쟁률이 6.59입니다. 충원 합격자는 37명이고, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48이며, 표준 편차는 4.66입니다.
+당신의 성적인 2.58을 기준으로 볼 때:
+1. **경쟁률**: 현재 경쟁률이 6.59로 매우 높습니다.
+2. **평균 점수**: 평균 점수가 353.48이고, 표준 편차가 4.66으로 비교적 낮은 편입니다.
+당신의 성적이 2.58이라면, 이는 평균보다 상당히 낮습니다. 그러나 정시 모집에서는 경쟁률이 높더라도 특별한 사유나 지원자의 전반적인 능력 등을 고려하여 합격자가 결정되는 경우가 있습니다.
+**추천사항:**
+1. **추가 지원**: 다른 대학이나 전형을 추가로 지원해보는 것이 좋습니다.
+2. **면접 준비**: 면접에서도 좋은 인상을 주고, 자신의 장점을 잘 표현하는 것이 중요합니다.
+3. **추천서 및 자기소개서**: 이 부분에서 자신만의 특별한 경험과 능력을 강조하면 도움이 될 수 있습니다.
+결론적으로, 현재 성적로는 매우 낮은 확률로 합격할 수 있지만, 추가 지원과 면접 준비를 통해 가능성은 열어두는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.7762561440467834</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>提供的信息中没有提到东国大学是否有游戏工学专业或具体的招生计划。建议您访问东国大学的官方网站（https://ipsi.deu.ac.kr/main.do）查看最新的招生简章和专业介绍，以确认是否开设了游戏工学相关专业以及具体的招生要求和名额。
+如果网站上没有相关信息，您可以直接联系学校的招生办公室获取更准确的信息。通常学校会有专门的联系方式或在线咨询表单，您可以通过这些渠道进行询问。
+希望这能帮助到您！如果有其他问题，请随时告诉我。</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.4994499981403351</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 수능 성적 평균이 4.16 정도인 지원자의 경쟁률과 충원 합격자를 고려해보겠습니다.
+- 모집 인원: 3명
+- 지원 인원: 16명
+- 경쟁률: 약 5.33 (16명 중 3명 선발)
+- 충원 합격자: 3명
+이러한 정보를 바탕으로, 수능 성적이 4.16정도인 지원자가 추가로 몇 번의 합격을 받을 수 있을지는 불확실합니다. 하지만 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **경쟁률**: 현재 경쟁률이 약 5.33으로 높기 때문에, 평균 성적이 4.16인 지원자는 상대적으로 낮은 위치에 있을 가능성이 큽니다.
+2. **성적 분포**: 표준 편차가 8.06이라는 점을 고려하면, 평균보다 약간 낮은 성적을 가진 지원자도 어느 정도의 가능성은 있습니다. 하지만 경쟁률이 높기 때문에 상위권 합격 가능성은 낮습니다.
+3. **추가 합격 가능성**: 추가로 몇 번의 합격을 받을 수 있을지는 불확실합니다. 평균 성적이 4.16인 지원자는 대체적으로 중하위권에 속할 가능성이 높기 때문에, 상위 3명 중에서 선발될 확률은 낮습니다.
+따라서, 정확한 합격 가능성은 모릅니다만, 경쟁률이 매우 높고 표준 편차가 큰 점을 고려하면 추가 합격 가능성은 매우 낮다고 추정할 수 있습니다. 
+추가적으로 지원자의 개인적인 특성(면접 성과, 서류 평가 등)도 중요한 요소로 작용하므로, 최선의 준비를 하시는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.7943271398544312</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시모집에 대한 정보를 바탕으로 답변 드리겠습니다.
+주어진 데이터에서, 경영정보학과의 경우 다음과 같은 특징이 있습니다:
+1. **경쟁률 및 지원자 수**:
+   - 모집인원: 77명
+   - 지원자 수: 67명
+   - 경쟁률: 0.87 (적은 경쟁률)
+2. **성적 평균**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 251.82
+   - 영어 등급의 평균: 5.68
+3. **성적 분포**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 40.92
+   - 영어 등급의 표준 편차: 1.67
+이러한 정보를 바탕으로, 경영정보학과에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 약 251.82이고, 이보다 높은 성적을 가진 지원자가 많지 않은 것으로 보입니다.
+**3.75라는 성적이 경영정보학과에서 최초 등록자로 가능할 수 있는지**:
+- **성적 평균 대비**: 3.75는 표준 변환 점수 합의 평균(251.82)보다 높은 수치를 가정하면, 이는 상대적으로 좋은 성적입니다.
+- **경쟁률 및 지원자 수**: 경쟁률이 낮고 지원자가 적어, 3.75라는 성적이 최초 등록자로 가능할 확률은 높습니다.
+따라서, 3.75라는 성적이 경영정보학과에서 최초 등록자로 가능할 것으로 보입니다. 하지만 최종 결정은 입학처의 심사 결과에 따라 변동될 수 있으므로, 정확한 정보는 입학처 웹사이트나 전화 문의를 통해 확인하시기 바랍니다.
+추가적으로, 서류평가와 면접 등 다른 평가 요소도 고려되어야 하므로, 모든 준비를 철저히 해두시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.764630138874054</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2024학년도의 경영정보학과의 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 313.13이며, 표준 편차는 5.75입니다.
+4.2의 성적은 표준변환점수가 아닌 일반적인 등급으로 보이므로, 이를 표준변환점수로 변환해야 합니다. 하지만 일반적으로 대학별로 표준변환표를 제공하지 않으므로, 정확한 변환이 어려울 수 있습니다.
+일반적으로, 4.2의 등급은 상당히 높은 점수로 볼 수 있으며, 평균치(313.13)보다 약간 높습니다. 표준 편차가 5.75이므로, 4.2는 약 0.68표준편차 이상의 점수가 될 것입니다.
+따라서, 4.2의 등급을 가지고 최초등록자로 경영정보학과에 지원하는 것은 가능할 수 있습니다. 하지만 확실한 결정을 내리기 위해서는 해당 대학에서 제공하는 표준변환표를 참고하거나, 입학처에 문의하시는 것이 좋습니다.
+추가적으로, 경쟁률이 높은 학과인 만큼, 다른 지원자들과 비교하여 자신의 성적과 전형요소(면접 등)을 잘 준비하고 있어야 합니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.7693279981613159</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 수능 전형성적 산출방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+이 정보를 바탕으로 정시 성적이 5.33인 경우, 수능 점수만을 고려해 볼 때 경쟁률과 모집 인원 등을 고려해야 합니다.
+주요 데이터:
+- 모집 인원: 7명
+- 지원 인원: 65명
+- 경쟁률: 4.33
+- 충원 합격 (후보순위): 23명
+국어, 수학, 영어 등급, 탐구 과목의 표준점수를 모두 고려해야 하지만, 정시 성적이 5.33이라면 대략적인 국어와 수학 점수가 필요합니다.
+예를 들어:
+- 국어: 90점 이상
+- 수학: 100점 이상 (미적분/기하)
+- 영어: 4등급 이상
+이 조건을 충족하면 합격 가능성은 있습니다. 하지만 경쟁률이 높고 모집 인원이 적으므로, 탐구 과목의 점수와 총점 평균 등을 고려해야 합니다.
+추가적으로:
+- 탐구 과목의 표준점수가 중요합니다.
+- 영어 등급도 중요한 요소입니다.
+따라서 정확한 합격 가능성 판단을 위해서는 전체 수능 성적과 탐구 과목 점수를 고려해야 합니다. 추천드리면, 동의대학교 입학사정관이나 입학처에 직접 문의하여 최종적인 합격 가능성을 확인하는 것이 좋습니다.
+추가 자료로 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시면 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.7260833978652954</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)에 대한 정보를 바탕으로 답변 드리겠습니다.
+1. **최초등록자와 최종등록자의 경쟁률 및 지원 인원**:
+   - **의생명공학과, 바이오의약공학과, 식품공학과**는 2024학년도 모집인원이 각각 99명이며, 지원 인원은 238명으로 경쟁률이 2.40입니다.
+   - 이는 상당히 높은 경쟁률을 보이고 있습니다.
+2. **성적 평균**:
+   - 최종등록자의 경우 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 395.58입니다.
+   - 최초합격자의 경우 이 값은 427.50으로 더 높습니다.
+3. **성적 비교**:
+   - 질문者的中文翻译如下：
+   问题：我的东义大正考成绩是3.33分，有可能被生物应用学部的首次注册录取吗？
+   根据2024年东义大学生物应用学部（包括生物医学工程系、生物医药工程系和食品工程系）的信息回答如下：
+1. **首次注册与最终注册的竞争率及报名人数**：
+   - 生物医学工程系、生物医药工程系和食品工程系的2024年招生名额分别为99人，而报名人数为238人，竞争比为2.40。
+   - 这表明竞争非常激烈。
+2. **平均成绩**：
+   - 最终注册者的国语 + 数学 + 选修（含加分）标准转换总分的平均值为395.58。
+   - 首次录取者的这一数值为427.50，更高一些。
+3. **成绩对比**：
+   - 您的成绩是3.33，这低于最终注册者和首次录取者的平均成绩。因此，根据提供的数据来看，您的成绩可能不足以被生物应用学部的首次注册录取。
+建议您查看东义大学官网（https://ipsi.deu.ac.kr/main.do）以获取最新信息，并考虑其他可能适合您的专业或申请条件。</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.7628679275512695</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 모집요강을 확인해보겠습니다.
+방사선학과는 공과대학에 속하며, 일반학생전형으로 지원할 수 있습니다. 2024학년도 방사선학과의 최종 등록자들의 성적 분포를 보면:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 약 260점대에서 380점대로 다양합니다.
+- 영어 등급의 평균은 대체로 4.5~5.5정도입니다.
+따라서, 현재 제출하신 성적(등급 4.4)으로는 방사선학과에 충분히 경쟁력을 갖추고 지원할 수 있을 것으로 보입니다. 하지만 최종 등록자들의 평균 점수가 상대적으로 높기 때문에, 경쟁률이 높을 가능성이 있습니다.
+추천사항:
+1. **성적 분석**: 현재의 성적과 방사선학과의 평균 성적을 비교해보세요.
+2. **경쟁률 확인**: 최신 경쟁률 정보를 확인하여 지원 가능성과 경쟁력을 판단하세요.
+3. **추가 준비**: 면접이나 서류평가에서 좋은 점수를 받기 위해 추가적인 준비를 하세요.
+만약 추가로 도움이 필요하시다면, 입학사정관의 조언을 구하거나, 해당 단과대학의 입학처 웹사이트나 전화 상담을 통해 자세한 정보를 얻으시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.7792753577232361</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 경쟁률이 7.20으로 높아 보입니다. 지원 인원이 36명이고 모집인원은 5명이므로, 평균적인 경쟁률을 고려할 때 2.66이라는 점수는 상대적으로 낮은 편입니다.
+방사선학과의 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 338.76이고 표준 편차는 5.40으로 높은 편입니다. 이에 비해 지원자의 평균 점수가 2.66이라면, 이는 상대적으로 낮은 수치로 보일 수 있습니다.
+하지만, 학생부종합 평가 영역에서 좋은 성적을 받았다면, 서류평가와 면접 등에서 높은 점수를 얻어 충분히 합격 가능성을 높일 수 있습니다. 특히, 방사선학과는 전공적합성과 관련된 활동이나 경험을 강조하는 것이 중요할 것입니다.
+결론적으로, 2.66이라는 점수만으로는 위험한 편이지만, 학생부종합 평가 영역에서 좋은 성적을 받았다면, 충분히 경쟁력을 갖추고 있을 수 있습니다. 따라서, 지원자의 전반적인 성적과 활동 내용을 종합적으로 고려하여 결정하는 것이 좋겠습니다.
+더 자세한 정보나 추가 도움이 필요하시면 https://ipsi.deu.ac.kr/main.do를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.769034206867218</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 정시 성적을 가지고 경찰행정학전공 농어촌 전형에 지원하시려는 의도를 이해합니다. 그러나 정확한 합격 가능성 판단은 여러 요소가 포함되므로, 다음과 같은 점들을 고려해보겠습니다:
+1. **학교별 수능 최저 기준**: 각 대학과 전공별로 수능 최저 기준이 다르므로, 해당 대학의 경찰행정학전공 농어촌 전형에 대한 수능 최저 기준을 확인해야 합니다.
+2. **학생부 평가**: 농어촌 학생 전형은 일반적으로 학생부 성적과 활동이 중요합니다. 3.66의 정시 성적이 좋은데, 학생부에서 높은 평점을 받았다면 이는 큰 장점입니다.
+3. **면접 및 서류평가**: 일부 대학에서는 면접이나 서류평가가 중요한 역할을 합니다. 준비를 철저히 하여 최선의 결과를 낼 수 있도록 해야 합니다.
+4. **동점자 처리 기준**: 동점자가 발생했을 때, 합격자를 결정하는 기준이 중요합니다. 이는 대학마다 다르므로 해당 대학의 정책을 확인해야 합니다.
+5. **전형 요소 반영 비율**: 전형요소 중 수능 성적이 큰 비중을 차지하고 있다면, 3.66이라는 점수는 합격 가능성에 영향을 줄 수 있습니다.
+**추천 사항:**
+- 해당 대학의 공식 홈페이지나 입학처와 연락하여 최신 정보를 확인하세요.
+- 전형요소 반영 비율과 동점자 처리 기준 등을 꼼꼼히 살펴보세요.
+- 면접 준비를 철저히 하여 좋은 인상을 남기도록 노력하세요.
+이러한 정보들을 종합적으로 고려하여 합격 가능성을 판단하시길 바랍니다. 추가로 궁금한 점이 있으면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.7532535195350647</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 점수를 요구하는 경우가 많습니다. 그러나 정시 합격 가능성을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **전형 유형과 모집단위**: 가군 수능(일반학생전형)이나 나군 실기/실적(일반학생전형) 등에 따라 전형요소 반영 비율이 다릅니다.
+2. **성적 및 점수**: 국어, 수학, 영어 등의 표준점수와 등급을 확인해야 합니다. 예를 들어, 가군의 경우 수능 4개 영역 중 상위 3개 영역의 점수를 합산하여 평균 점수로 계산합니다.
+3. **면접 및 실기 성적**: 나군 실기/실적(일반학생전형)에서는 실기고사 성적이 반영되므로 이 부분도 중요합니다.
+4. **동점자 처리 기준**: 동점자가 있을 경우, 수능 국어, 수학, 영어 등급 점수를 합산하여 순위를 결정하기 때문에 25번이 나왔다는 것은 좋은 신호일 수도 있습니다.
+5. **학교별 정원 및 경쟁률**: 각 모집단위의 정원과 전체 지원자 수를 고려해야 합니다.
+6. **면접 성적**: 면접 평가에서도 중요한 역할을 하므로, 이 부분도 잘 준비해 두는 것이 좋습니다.
+이러한 요소들을 종합적으로 고려하여 합격 가능성을 판단하는 것이 중요합니다. 만약 불확실성이 크다면, 입학사정관이나 학교 관계자에게 상세히 문의하거나, 전형요소 반영 비율과 동점자 처리 기준 등을 자세히 확인해 보는 것이 도움이 될 수 있습니다.
+또한, 정시 합격을 위한 준비를 철저하게 해두는 것이 중요합니다. 특히 면접이나 실기고사 등에서 좋은 성적을 얻기 위해 충분한 연습과 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.8149198293685913</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학부의 정시 모집에 대한 정보를 바탕으로 추론해보겠습니다.
+1. **전형별 모집인원 및 지원자 수**:
+   - 경찰행정학과: 정원 내 모집 인원 7명, 지원 인원 29명 (경쟁률 4.14)
+   - 소방방재행정학과: 정원 내 모집 인원 4명, 지원 인원 23명 (경쟁률 5.75)
+2. **성적 평균 및 표준 편차**:
+   - 경찰행정학과: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 332.86, 표준 편차는 4.97
+   - 소방방재행정학과: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 314.25, 표준 편차는 4.71
+이 정보를 바탕으로 추론해보겠습니다:
+- **경쟁률이 높은 경찰행정학과**:
+  - 평균 점수: 332.86
+  - 표준 편차: 4.97
+  - 이는 대략 330점대에서 안정적으로 합격할 수 있을 것으로 예상됩니다.
+- **소방방재행정학과**:
+  - 평균 점수: 314.25
+  - 표준 편차: 4.71
+  - 이는 대략 310점대에서 안정적으로 합격할 수 있을 것으로 예상됩니다.
+따라서, **법경찰행정학부**의 경우:
+- **경찰행정학과**: 평균 332.86 점 중 330점 이상을 받으면 안정적인 합격 가능성이 높습니다.
+- **소방방재행정학과**: 평균 314.25 점 중 310점 이상을 받으면 안정적인 합격 가능성이 높습니다.
+이러한 추론은 실제 모집인원과 지원자 수, 그리고 경쟁률 등을 고려한 것입니다. 하지만 최종 결정에는 다양한 요인이 포함되므로, 정확한 점수는 입학사정관의 평가와 면접 결과 등에 따라 달라질 수 있습니다.
+추천되는 방법은:
+1. **최근 몇 년간의 성적 분포를 확인**하여 실제 경쟁률을 파악합니다.
+2. **면접 준비**를 철저히 하여 합격 가능성을 높입니다.
+3. **추가 지원 자료**를 준비하여 입학사정관에게 좋은 인상을 줍니다.
+더 궁금하신 점이 있으시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)에서 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.7809203863143921</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 보육가정상담학과는 아동학과로 분리되었습니다. 따라서, 현재 정보를 바탕으로 보육가정상담학과에 대한 정시 성적 산출 등급을 확인하기 어렵습니다.
+하지만, 일반적으로 동의대학교의 경우 수능 성적이 주요한 평가 기준이므로, 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **수능 성적**: 제공된 예시에서 보듯이, 수능 성적은 합격 여부에 큰 영향을 미칩니다. 5.33 등급은 중간 정도의 성적입니다.
+2. **모집단위와 전형방법**: 특정 모집단위에서는 수능 성적이 더 중요할 수 있으며, 다른 모집단위에서는 학생부나 면접 등의 요소가 더 크게 반영될 수 있습니다.
+3. **경쟁률과 지원자 수**: 각 모집단위의 경쟁률과 지원자 수에 따라 합격 기준이 달라질 수 있습니다. 예를 들어, 경쟁률이 높은 모집단위에서는 조금 더 높은 성적이 필요할 수 있습니다.
+4. **추가 요소**: 일부 전형에서는 학생부, 면접 등 추가적인 평가 요소가 반영되므로, 단순히 수능 성적만으로 판단하기는 어렵습니다.
+따라서, 정확한 답변을 위해서는:
+- 해당 모집단위의 최종 합격 기준과 경쟁률 등을 확인해야 합니다.
+- 동의대학교 입학처 웹사이트나 공지사항을 통해 가장 최신 정보를 얻어야 합니다.
+- 필요하다면, 동의대학교 입학처에 직접 문의하여 자세한 정보를 얻는 것이 좋습니다.
+https://ipsi.deu.ac.kr/main.do 에서 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.7434729933738708</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 전형 일정과 모집 인원, 지원자 수 등을 고려해보겠습니다.
+1. **전형일정 및 지원자 수**:
+   - **합격자 발표 및 등록금 납부 충원 합격자 3차 (인터넷) 발표**: 2024년 2월 15일(목)
+   - **충원 합격 (후보순위)**: 2024년 2월 20일(화)까지
+2. **모집 인원 및 지원자 수**:
+   - 모집 인원: 13명
+   - 지원 인원: 11명 (경쟁률은 0.85)
+3. **현재 상황**:
+   - 충원 합격자는 2명이 결정되었습니다.
+   - 예비 합격자(예비 12번)는 아직 결정되지 않았습니다.
+4. **합격 가능성 분석**:
+   - 현재 모집 인원은 13명이고, 지원 인원은 11명으로, 경쟁률은 매우 낮습니다 (0.85).
+   - 충원 합격자 2명이 결정되었으므로, 예비 합격자(예비 12번)는 아직 기회가 있습니다.
+   - 그러나 이미 2명의 합격자가 결정되어, 예비 합격자의 경쟁률은 9:0 (현재 지원자 수로 계산).
+5. **추천 사항**:
+   - 입학관리팀이나 해당 단과대학에 문의하여 최종 결과를 확인하는 것이 좋습니다.
+   - 만약 아직 결정되지 않았다면, 합격 가능성은 있으나 매우 낮습니다.
+결론적으로, 현재 상황에서는 예비 12번이 합격할 확률은 매우 낮지만, 최종 결과는 입학관리팀이나 해당 단과대학에서 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.9058365225791931</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75의 수능 등급은 상당히 높은 점수입니다. 인문사회과학대학의 유아교육과에서 지원하는 경우, 이 성적은 매우 유리한 위치에 있습니다.
+유아교육과는 일반적으로 학생들의 수능 성적이 낮은 편이지만, 4.75 등급을 가지고 있다면 충분히 경쟁력을 갖추고 있을 것입니다. 특히, 인문사회과학대학의 경우, 수능 점수 외에도 학생부 종합 평가와 면접 등의 요소들이 중요한 역할을 합니다.
+다음은 유아교육과 지원 시 고려해야 할 몇 가지 포인트입니다:
+1. **학생부 성적**: 수능 등급이 높더라도, 학생부에서의 성적이 낮다면 이점이 제한될 수 있습니다. 따라서 학생부에서도 좋은 성적을 유지하는 것이 중요합니다.
+2. **면접 준비**: 면접에서는 유아교육에 대한 열정과 이해도를 잘 보여줘야 합니다. 지원 동기와 학업 계획, 그리고 관련 경험 등을 잘 준비해야 합니다.
+3. **추천서 및 자소서**: 추천서나 자기소개서에서도 자신의 장점을 잘 표현하고, 유아교육과에 적합하다는 점을 강조하는 것이 좋습니다.
+4. **진로 탐색 활동**: 진로 탐색 활동이나 관련 경험을 잘 기재하면 전공적합성 평가에서 높은 점수를 받을 수 있습니다.
+결론적으로, 4.75의 수능 등급으로 유아교육과에 지원한다면 충분히 가능성이 있으며, 학생부와 면접 준비를 잘 하면 경쟁력을 갖출 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.81471848487854</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 보육가정상담학과는 아동학과로 분리되었습니다. 따라서, 현재 정보를 바탕으로 답변드리겠습니다.
+1. **경쟁률 및 지원 인원**:
+   - 2024학년도 아동학과의 모집인원은 13명이며, 지원 인원은 11명입니다.
+   - 경쟁률은 0.85로 매우 낮습니다.
+2. **성적 평균 및 표준 편차**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 318.67
+   - 영어 등급의 평균: 6.33
+   - 수능 4개 영역 등급의 평균: 7.08
+3. **당신의 성적**:
+   - 환산등급이 4.16인 경우, 이는 대략 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균보다 낮습니다.
+4. **합격 가능성**:
+   - 현재 정보로 볼 때, 환산등급이 4.16인 경우 경쟁률이 매우 낮고 지원 인원도 적어 이전년도와 비슷한 경향을 보일 가능성이 높습니다.
+   - 그러나 합격 가능성은 환산등급뿐만 아니라 면접 성적, 서류 평가 등 다양한 요소에 따라 결정되므로, 완벽히 확신할 수는 없습니다.
+5. **추천**:
+   - 추가적으로 면접 준비를 철저히 하세요.
+   - 서류 제출 시 학교생활기록부와 관련 증빙 자료가 충분히 반영되도록 합니다.
+   - 입학사정관과의 소통을 통해 자신의 강점을 잘 전달할 수 있도록 노력하세요.
+결론적으로, 환산등급이 4.16인 경우에도 합격 가능성은 있습니다만, 면접 성적 등 다른 요소도 중요하므로 철저한 준비가 필요합니다. 더 자세한 정보나 추가적인 질문이 있으시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.8037651181221008</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프거위융합학과를 정시로 지원하려는 경우, 주요 정보와 요구사항을 다음과 같이 요약할 수 있습니다:
+1. **모집단위 및 인원**:
+   - 모집 단과대학: ICT융합공과대학
+   - 모집 단과학부: 소프트웨어공학부 (컴퓨터소프트웨어공학, 응용소프트웨어공학)
+   - 모집인원: 45명
+2. **수능 반영 영역 및 가산점**:
+   - 수능 반영 영역: 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+   - 가산점: 수학(미적분 또는 기하) 응시자 : 수학 취득 표준점수의 10% 가산점
+3. **경쟁률 및 평균 등급**:
+   - 경쟁률은 약 4.87대1 (최초합격자)
+   - 평균 등급: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11
+   - 영어 등급의 평균은 3.30
+4. **추천 등급**:
+   - 경쟁률과 지원 인원을 고려할 때, 대략적으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균 330 이상을 받는 것이 유리할 것으로 보입니다.
+   - 영어 등급도 최소 3.30 이상이 필요할 것입니다.
+따라서, 소프트웨어융합학과를 정시로 지원하려면 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균 330 이상을 받는 것이 바람직하며, 영어 등급도 최소 3.30 이상이 필요할 것으로 추정됩니다.
+만약 자세한 정보나 추가 지원 전략이 필요하시다면, 해당 대학의 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.5953771471977234</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 나군 학생부종합(조기취업형계약학과전형)의 경우, 소프트웨어융합학과에 지원할 때 면접 점수와 서류 평가 모두 중요한 요소로 작용합니다. 특히 서류 평가는 제출된 서류 내용이 학생의 전공적합성, 학업역량, 공동체역량 등을 종합적으로 판단하는 데 큰 영향을 미칩니다.
+1. **면접 점수**: 면접에서는 지원동기와 학업계획, 학업역량 및 전공적합성에 대한 질문이 주어집니다. 이때 답변 내용의 정확성과 논리성이 중요합니다.
+2. **서류 평가**: 서류 평가는 제출된 서류를 통해 지원자의 전공적합성, 학업역량, 공동체역량 등을 종합적으로 판단합니다.
+   - **전공적합성**: 지원자가 소프트웨어융합학과에 대한 관심과 이해도를 보여주는 내용이 중요합니다. 이는 교내 활동이나 관련 경험을 통해 입증할 수 있습니다.
+   - **학업역량**: 고교 생활 중 학업에 대한 어려움과 해결책, 그리고 이를 극복한 노력 등을 설명해야 합니다.
+   - **공동체역량**: 협업능력과 나눔 및 배려의 태도를 보여주는 내용이 중요합니다.
+따라서, 서류 준비 시 다음과 같은 점을 고려해 주세요:
+- **전공적합성 관련 활동**: 지원자가 소프트웨어융합학과에 관심을 가지고 어떤 활동을 했는지 구체적으로 설명해야 합니다.
+- **학업역량 증거**: 학교생활기록부나 제출서류에서 학업 역량을 입증할 수 있는 내용을 포함시켜야 합니다. 예를 들어, 프로젝트 참여 경력이나 관련 과목 성적 등을 언급할 수 있습니다.
+- **공동체역량**: 협업 활동이나 봉사활동 등에서의 경험과 배려심을 보여주는 내용을 포함시켜야 합니다.
+**준비 방법**:
+1. **서류 작성 시 주의사항**: 학교생활기록부와 제출서류를 작성할 때는 교사의 검토 없이 단순히 기재하는 것보다, 실제 경험과 노력에 대한 구체적인 설명을 포함시켜야 합니다.
+2. **동일 내용 반복 기재 피하기**: 동일한 내용을 여러 번 반복적으로 기재하지 않도록 주의해야 합니다.
+3. **과장된 내용 피하기**: 창의적 체험활동이나 동아리 활동 등에 대한 세부 내용은 실제 경험과 일치하도록 작성해야 합니다.
+이러한 준비를 통해 서류 평가와 면접에서 좋은 점수를 받을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.5768407583236694</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프수어공학부의 경우, 최초합격자의 수능 평균 점수가 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- 영어 등급의 평균: 3.77
+당신이 제시한 성적은 수능 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 4.08이며, 이는 평균보다 약간 높습니다.
+영어 등급의 경우, 평균이 3.77이므로 당신의 영어 등급 3.00은 약간 낮지만, 전체적으로 볼 때 경쟁률이 높지 않은 소프트웨어공학부에서 가능성이 있습니다.
+경쟁률과 모집 인원을 고려하면, 성적만으로는 충분하지 않을 수 있지만, 학업역량이나 전공적합성 등 다른 평가 요소를 고려할 때 가능성을 열어두어야 합니다. 
+따라서, 최초합격자로 선발되는 것은 어렵지만, 지원을 해보시는 것이 좋습니다. 추가적인 서류평가와 면접 등을 통해 합격 가능성은 높일 수 있습니다.
+추가적으로, 동의대학교 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)를 참조하여 최신 정보와 자세한 평가 기준을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.8730817437171936</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과의 경우, 정시 모집군이 변경되었습니다. 이전에는 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)로 분류되었으나, 2024년부터는 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)로 학과가 분리되었습니다.
+정시 모집군 변경에 따라 평균 등급이나 경쟁률 등의 정보도 달라질 수 있습니다. 2024년의 경우, 소프트웨어공학부는 정시 모집군이 다군으로 변경되었고, 이에 따른 지원자들의 성적 분포와 경쟁률은 변화할 가능성이 있습니다.
+따라서, 5등급을 기준으로 소프트웨어융합학과에 지원하기 위해서는 다음과 같은 점들을 고려해야 합니다:
+1. **최종 등록자 및 최초 합격자의 성적 분포**: 위에서 제공된 데이터를 참고하여, 최근의 평균 등급과 경쟁률을 확인합니다.
+2. **경쟁률**: 4.87 또는 5.33과 같은 높은 경쟁률을 고려해야 합니다.
+3. **모집 인원 및 지원 인원**: 모집 인원이 많다면, 낮은 경쟁률에도 불구하고 충원 합격자가 늘어날 수 있습니다.
+따라서, 5등급으로 소프트웨어융합학과에 지원하기 위해서는 다음과 같은 점들을 확인하고 준비해야 합니다:
+- **최신 정보 확인**: 입시 홈페이지(https://ipsi.deu.ac.kr/main.do)를 통해 최신의 모집요강 및 평균 등급, 경쟁률 등을 확인합니다.
+- **성적 분석**: 자신의 성적이 5등급에 해당하는지, 그리고 이보다 높은 등급을 받았던 학생들의 지원 경향을 분석합니다.
+- **면접 준비**: 면접 평가 비율이 상대적으로 높다면, 면접 준비도 중요하게 고려해야 합니다.
+결론적으로, 5등급으로 소프트웨어융합학과에 지원하는 것은 가능하지만, 경쟁률과 모집 인원 등을 종합적으로 고려하여 결정해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.6570368409156799</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과와 고분자나노공학과에 대한 지원을 고려할 때, 다음과 같은 정보를 바탕으로 답변 드리겠습니다.
+- 신소재공학과 모집인원: 56명
+- 지원 인원: 81명
+- 경쟁률: 1.45
+- 충원 합격 (후보순위): 25명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 271.64
+- 영어 등급의 평균: 5.06
+상기 정보를 바탕으로, 지원자의 성적이 4.28이라는 점을 고려하면:
+1. **경쟁률**: 현재 경쟁률은 1.45로 상대적으로 낮습니다.
+2. **성적 평균**: 지원자 성적이 4.28이라면, 이는 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균인 271.64보다 약간 높습니다.
+3. **영어 등급**: 지원자의 영어 등급이 5.06과 비슷하거나 약간 낮을 수 있습니다.
+따라서, 성적이 조금 더 높은 지원자들과 경쟁해야 하지만, 충원 합격 인원(25명) 중 일부는 이러한 점수를 가지고 입학할 가능성이 있습니다. 
+**결론**: 지원자의 성적과 경쟁률을 고려하면, 신소재공학부에 들어갈 수 있는 가능성은 있지만, 확실한 것은 아닙니다. 최선의 결과를 얻기 위해서는 추가적인 준비와 노력이 필요합니다.
+추가적으로, 동의대학교에서는 다양한 전형 방식이 있으므로, 학생부 종합전형이나 다른 전형을 통해 입학할 수도 있습니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.8004188537597656</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>一般的地，对于韩国的大学入学考试（如高考），通常不需要单独提交个人陈述或自我介绍信。根据您提供的信息，一般学生高考（普通学生类型）的录取方式主要依赖于以下几个方面：
+1. **成绩**：国语、数学、英语和学科学习能力测试的成绩。
+2. **面试**：部分专业可能会有面试环节，但不是所有专业都要求。
+对于一般的高考入学申请，重点在于准备并提交您的成绩单和其他必要的文件。如果您被邀请参加面试，则需要准备好相关的自我介绍和回答问题的材料。
+如果确实需要撰写个人陈述或自我介绍信，请确保内容真实、具体，并突出您在学术和个人方面的优势以及为什么选择该专业等信息。但请注意，这并不是普遍要求的内容，具体情况请参考目标大学的具体招生简章或咨询学校招生办公室。
+如果您不确定是否需要提交自我介绍信或其他材料，建议直接访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 查看最新的招生信息和具体要求。</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.2745656371116638</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 수능 영어 등급점수를 의미하는 것 같습니다. 동의대학교의 수능 전형성적 산출방법을 보면, 일반학생전형에서는 다음과 같은 방식으로 성적이 계산됩니다:
+- **가군(일반학생전형)**: 
+  - 인문사회과학, 상경대학 모집단위: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+  - 의료·보건·생활, 공과대학, ICT융합공과대학 모집단위: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점(수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1)
+- **나군(일반학생전형)**: 
+  - 인문사회과학대학, 상경대학 모집단위, 한의예과, 패션디자인학과: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 ※ 한의예과 탐구영역은 백분위에 따른 변환표준점수를 반영
+  - 의료·보건·생활대학, 공과대학, ICT융합공과대학 모집단위: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점(수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1)
+  - 디자인조형학과, 체육학과, 경기지도학과: 수능 4개 영역(국어, 수학, 영어, 탐구) 중 표준점수 및 등급점수 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2
+- **다군(일반학생전형)**: 
+  - 인문사회과학대학, 상경대학 모집단위: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+  - 공과대학, ICT융합공과대학 모집단위: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점(수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1)
+4.5는 영어 등급 점수가 135-138 범위에 해당합니다 (등급 2). 따라서, 이 점수만으로는 충분한 성적이 아니라고 볼 수 있습니다.
+추가 모집 가능성 여부는 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **모집정원**: 각 학과의 추가모집 정원이 얼마나 있는지 확인해야 합니다.
+2. **경쟁률**: 현재 경쟁률을 고려하면, 4.5라는 점수로는 상대적으로 낮은 경쟁률인 모집단위에만 충분할 수 있습니다.
+3. **기타 평가 요소**: 일부 학과에서는 학생부, 실기 등 다른 평가 요소를 고려하기 때문에, 이 점수 외에도 좋은 성적을 보여줄 필요가 있습니다.
+따라서, 4.5라는 점수로는 확실한 입학이 어렵다고 볼 수 있지만, 추가모집이나 경쟁률이 낮은 모집단위에서는 가능성이 있을 수 있습니다. 
+추가 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi.deu.ac.kr/main.do)에서 최신 정보를 확인하거나 학교 입학처에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.9132306575775146</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교 신소재공학과와 분자나노공학과를 모집하며, 지원 인원은 81명이고 모집 인원은 56명으로 경쟁률이 1.45입니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 271.64이며, 이는 대략 3등급 중반 정도의 수준입니다.
+따라서 신소재공학부에 지원하려면 대략 3등급 이상의 성적을 보유하고 있는 경우가 많습니다. 하지만 최종 합격 가능성은 개인의 경쟁력을 포함하여 여러 요인에 따라 달라질 수 있으므로, 정확한 등급보다는 자신의 실력과 모집단위의 평균 점수를 비교하는 것이 좋습니다.
+참고로 이 정보는 2024학년도의 데이터이며, 실제 입시에서는 변동이 있을 수 있으니 공식 입시 안내 사이트인 "https://ipsi.deu.ac.kr/main.do"를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.7290185689926147</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 신소재공학과와 분자나노공학과의 경우, 지원 인원이 많아 경쟁률이 높았습니다. 작년과 비교해 표준점수 변동 여부는 여러 요인에 따라 달라질 수 있습니다.
+1. **지원 인원**: 작년에는 모집 인원 56명에 지원 인원이 81명으로 많은 지원자가 경쟁했으므로, 평균 점수가 상대적으로 높을 가능성이 있습니다.
+2. **경쟁률**: 작년의 경우 경쟁률이 1.45였지만, 올해는 경쟁률이 0.87로 낮아 지원자의 수준이 더 다양할 수 있습니다.
+3. **입학사정관 평가 영향**: 학생부 종합 평가에서의 입학사정관 평가는 작년과 올해 모두 중요한 요인으로 작용했을 것입니다.
+따라서, 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다면, 작년에는 많은 지원자가 높은 표준점수를 가지고 있었던 것일 수 있습니다. 하지만 올해는 경쟁률이 낮아서 평균 점수가 조금 더 낮아질 가능성도 있습니다.
+**결론**: 작년과 비교했을 때 447점으로 환산된 표준점수가 작년의 최종 평균 점수보다 약간 높은 것은 가능하지만, 확실한 예측은 어렵습니다. 동의대학교 입학정보 공시 사이트나 대학 측에서 제공하는 자료를 확인해 보는 것이 가장 정확할 것입니다.
+더 궁금하신 사항이 있으시면 https://ipsi.deu.ac.kr/main.do로 접속하여 확인하시거나, 대학 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.7349498867988586</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 신소재공학과의 일반학생전형에 충분한 점수일지는 확실하지 않습니다. 신소재공학과는 대체로 높은 수능 점수가 요구되므로, 현재 예상 점수인 4.1~4.2 등급으로는 경쟁률이 매우 높아서 합격하기 어려울 가능성이 큽니다.
+신소재공학과의 경우, 수능 성적뿐만 아니라 전형요소(면접, 서류평가 등)도 중요한 역할을 합니다. 따라서 다음과 같은 점들을 고려해보시는 것이 좋습니다:
+1. **전형요소 평가**: 면접이나 서류평가에서 좋은 결과를 얻기 위해 준비해야 합니다.
+2. **추천서 및 자기소개서**: 강력한 추천서와 잘 작성된 자기소개서가 도움이 될 수 있습니다.
+3. **진로계획 및 동기부여**: 면접이나 서류평가에서 자신의 진로계획과 학과에 대한 열정을 잘 표현해야 합니다.
+또한, 동의대학교의 최종 등록자들의 성적 분포를 참고하여 현재의 성적이 어느 수준인지 확인해보시는 것도 도움이 될 것입니다. 예를 들어, 신소재공학과의 경우, 지원자의 수능 점수가 4.5 이상인 경우가 많다면, 4.3 등급은 경쟁력이 떨어질 수 있습니다.
+결국, 최종 합격 여부는 여러 요소들이 복합적으로 작용하기 때문에 확실한 답변을 드리기는 어렵습니다. 하지만 현재의 성적만으로는 신소재공학과에 합격하기 어려울 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.7848622798919678</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 인공지능학과의 수능(일반학생전형)에 대한 최초합격자와 최종등록자의 성적을 요약해 드리겠습니다:
+1. **최초합격자**:
+   - 모집인원: 15명
+   - 지원인원: 24명
+   - 경쟁률: 1.60
+   - 충원 합격 (후보순위): 5명
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 301.87
+   - 영어 등급의 평균: 4.13
+   - 수능 4개 영역 등급의 평균: 4.98
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 415.80
+2. **최종등록자**:
+   - 모집인원: 15명
+   - 지원인원: 24명
+   - 경쟁률: 1.60
+   - 충원 합격 (후보순위): 5명
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 396.24
+   - 영어 등급의 평균: 1.00
+   - 수능 4개 영역 등급의 평균: 1.19
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 539.24
+이 성적을 참고하시면 도움이 될 것입니다. 하지만 최종적인 입학 가능 여부는 경쟁률, 지원자들의 성적 분포 등 다양한 요인에 따라 결정되므로, 정확한 정보를 얻기 위해서는 공식 홈페이지나 학교 관계자에게 문의하시는 것이 좋습니다. 
+[공식 홈페이지 링크](https://ipsi.deu.ac.kr/main.do)를 통해 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.8740068674087524</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 영어 등급은 상당히 높은 점수입니다. 동국대학교의 모집단위별 경쟁률과 지원 인원 등을 고려할 때, 특정 학과에 대해 어느 정도의 가능성 있는지 판단하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **모집단위와 지원인원**: 동국대학교에서 수능(일반학생전형) 최종등록자 중 5.27이라는 영어 등급을 가진 지원자가 어느 학과에 지원했는지 확인해야 합니다. 예를 들어, 특정 학과가 많은 지원자를 받았다면 경쟁률이 높아서 5.27의 점수로 충원되지 않을 가능성이 있습니다.
+2. **경쟁률**: 동국대학교의 각 학과별 경쟁률을 확인해야 합니다. 예를 들어, 경쟁률이 1:10 이하인 학과에서는 5.27이라는 영어 등급으로 충분히 추천받을 수 있습니다.
+3. **모집인원**: 모집인원이 적은 학과는 더 높은 점수를 요구할 가능성이 있으므로, 해당 학과의 모집인원도 고려해야 합니다.
+4. **전형별 평균점수**: 동국대학교에서 각 전형별로 지원자의 수능 성적 평균을 확인하여, 5.27이라는 점수가 평균 이상인지 아래인지 판단할 수 있습니다.
+특정 학과에 대한 자세한 정보를 제공하기 위해서는 동국대학교의 공식 홈페이지나 입학처 웹사이트를 참조하거나, 직접 문의하는 것이 가장 정확합니다. 
+따라서, 5.27이라는 영어 등급으로 추천받을 수 있는 학과는 경쟁률이 낮고 모집인원이 적은 학과일 가능성이 높습니다. 예를 들어, 공과대학의 특정 학과나 미래융합대학의 신설 학부 등이 그러할 수 있습니다.
+추천받을 확률을 정확히 판단하기 위해서는 동국대학교 입학처 웹사이트에서 최신 정보를 확인하거나, 직접 문의하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.778095006942749</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 수능 등급은 경쟁률이 높은 모집단위에서는 다소 어려울 수 있습니다. 그러나 동의대학교의 경우, 다양한 전형 방식을 통해 지원자를 평가하기 때문에 교과 성적만으로도 합격 가능성은 있습니다.
+특히 소프트웨어공학부는 경쟁률이 높지만, 교과성적이 좋은 경우에도 충원 가능성이 있습니다. 교과성적이 4.2라면, 지원자의 전반적인 학업 역량을 인정받을 수 있을 것입니다.
+다음은 몇 가지 고려사항입니다:
+1. **교과 성적**: 4.2는 꽤 좋은 점수로, 이는 지원자가 교과 과목에서 높은 평균 점수를 유지하고 있다는 것을 의미합니다.
+2. **면접 및 서류평가**: 동의대학교에서는 면접과 서류 평가도 중요한 요소입니다. 지원자의 자기소개서, 학업 계획 등이 중요하게 평가될 수 있습니다.
+3. **추천서나 특기사항**: 추천서나 특기사항을 잘 작성하면 추가적인 점수를 얻을 수 있습니다.
+4. **전공적합성**: 지원자가 해당 전공에 대한 열정과 적합성을 잘 표현한다면 이는 긍정적으로 평가될 것입니다.
+5. **추천사진 및 자료 제출**: 관련 자격증이나 프로젝트 경험 등을 첨부하면 도움이 될 수 있습니다.
+따라서, 교과성적이 4.2라면 소프트웨어공학부에 지원하는 것은 가능합니다만, 경쟁률이 높아 확실한 합격을 보장받기는 어렵습니다. 꼭 면접 준비와 서류 작성에도 신경 써야 합니다.
+추가적으로, 동의대학교의 공식 웹사이트나 입학처에 문의하여 최신 정보를 확인하는 것이 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 내용을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.7297431826591492</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92 등급점수를 화학환경공학부(화학공학, 환경공학, 응용화학)의 수능 전형성적 산출 방법으로 변환해보겠습니다.
+1. **등급별 점수 변환표**:
+   - 3 등급: 123
+   - 4 등급: 115
+   - 5 등급: 107
+   - 6 등급: 99
+   - 7 등급: 91
+   - 8 등급: 83
+   - 9 등급: 75
+2. **3.92 등급의 점수**:
+   - 3.92는 4등급과 5등급 사이에 위치합니다.
+   - 보통 중간점수를 사용하므로, 115 (4등급)와 107 (5등급)의 평균을 계산하면 됩니다.
+\[ \text{평균 점수} = \frac{115 + 107}{2} = \frac{222}{2} = 111 \]
+따라서, 3.92 등급은 대략 111점으로 변환됩니다.
+**화학환경공학부의 수능 전형성적 산출 방법**:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+이를 적용하면, 예시로 104 (국어), 108 (수학), 111 (영어), 47 (과탐)을 가정해보겠습니다.
+\[ \text{산출 점수} = 104 + 108 + 111 + 47 = 370 \]
+이 점수가 화학환경공학부의 수능 전형성적 산출 방법에 따라 계산됩니다. 
+**결론**: 
+- 3.92 등급점수는 대략 111점으로 변환되며, 이 점수가 포함된 총점은 370점입니다.
+- 화학환경공학부의 경우, 국어와 수학이 높고 탐구가 낮더라도 총점이 충분히 높아서 가능할 것으로 보입니다. 하지만 최종 결정은 해당 대학에서 정확한 점수 변환과 전형 기준을 고려하여 판단해야 합니다.
+따라서, 이 점수가 화학환경공학부의 일반학생전형에 충분히 경쟁력이 있을 것으로 예상되지만, 최종 결정은 해당 대학에서 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.697330117225647</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024학년도 동국대학교 화학공학과, 환경공학과, 응용화학과에 지원하시려면 수능(일반학생전형)을 통해 지원하실 수 있습니다. 
+현재 제공된 정보를 바탕으로 다음과 같은 점들을 고려해보겠습니다:
+1. **모집단위**: 화학공학과, 환경공학과, 응용화학과는 2024학년도에 모집합니다.
+2. **지원 자격**: 수능(일반학생전형)은 고등학교 졸업 또는 법정 동등 학력 소지자에게 개방됩니다.
+**성적 평균**: 제공된 성적이 4.25로, 이는 매우 좋은 점수입니다. 하지만 최종 결정을 내리기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+- **경쟁률 및 모집인원**: 각 학과의 경쟁률과 모집 인원 수를 확인하여 지원 가능성을 판단합니다.
+- **성적 평균**: 제공된 성적이 4.25로, 이는 매우 좋은 점수입니다. 하지만 수능 성적도 함께 고려해야 합니다.
+- **수능 성적**: 제공된 수능 성적을 확인하고, 해당 학과의 수능 전형성적 산출방법에 따라 평균 점수를 계산하여 지원 가능성을 판단합니다.
+**수능 전형성적 산출방법**: 화학공학과, 환경공학과, 응용화학과는 수능 전형성적 산출방법이 다음과 같습니다:
+- **국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수** 또는 
+- **국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점(수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1)**
+**추천 사항**:
+- **수능 성적 확인**: 제공된 성적이 4.25라면, 해당 학과의 평균 점수와 비교하여 지원 가능성을 판단합니다.
+- **모집인원 및 경쟁률**: 각 학과의 모집 인원과 경쟁률을 확인하여 지원 가능성을 판단합니다.
+**결론**:
+성적이 4.25라면, 수능 성적도 매우 좋으므로 해당 학과에서 충분히 경쟁력을 갖추고 있을 것으로 보입니다. 하지만 최종 결정은 모집인원, 경쟁률 등 다양한 요소를 고려하여 내려야 합니다.
+**추가 정보 확인**: 
+- 동국대학교 입학처 홈페이지 (https://ipsi.deu.ac.kr/main.do)에서 최신 정보와 자세한 지원 안내를 확인하시기 바랍니다.
+- 각 학과의 모집인원, 경쟁률 등을 확인하여 지원 가능성을 판단하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.6546581983566284</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 표준점수로 보이는데, 이 점수만으로는 확실한 답변을 드리기 어렵습니다. 영화학과의 경쟁률과 지원자들의 평균 성적 등을 고려해야 합니다.
+주요 정보를 바탕으로 다음과 같은 분석을 해볼 수 있습니다:
+1. **경쟁률**: 2024학년도에 영화학과는 5명 모집하고 11명이 지원했으므로 경쟁률은 약 2.2입니다.
+2. **평균 성적**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 286.77
+   - 영어 등급의 평균: 3.66
+   - 수능 4개 영역 등급의 평균: 5.04
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 404.43
+3. **당신의 성적**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 4.2
+   - 영어 등급: 3.66 (평균과 동일)
+   - 수능 4개 영역 등급의 평균: 5.04 (평균과 동일)
+당신의 성적은 평균보다 약간 높습니다. 그러나 표준 변환 점수 합이 중요한데, 이 부분에서는 평균을 살짝 넘었습니다.
+**추천 사항**:
+1. **표준 변환 점수를 확인하세요**: 실제 표준 변환 점수가 4.2 이상인지 확인해야 합니다.
+2. **영어 등급과 수능 4개 영역 등급 평균을 고려하세요**: 이 부분에서도 당신의 성적이 평균과 동일하거나 약간 높습니다.
+3. **경쟁률과 지원자들의 다양성**: 경쟁률이 낮고, 지원자의 성적 분포를 확인해 보세요.
+결론적으로, 당신의 성적은 합격 가능성은 있지만 확실하지 않습니다. 최종 결정을 내리기 위해서는 해당 대학에서 공개하는 정시 결과나 추가 정보를 참고해야 합니다. 필요하다면, 입학처에 문의하여 자세한 상황을 확인해 보세요.
+더 궁금하신 점이 있으시다면, https://ipsi.deu.ac.kr/main.do로 가서 자세한 정보를 확인하거나, 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.8331928253173828</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접에서 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.9915906190872192</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.8003776690363884</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.7873927128314971</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.7709718555212021</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.7938851909339428</v>
+      <c r="D305" t="n">
+        <v>0.7862474124630292</v>
       </c>
     </row>
   </sheetData>
